--- a/Code/Results/Cases/Case_1_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.839526918570895</v>
+        <v>7.046725381108142</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.775244307934129</v>
+        <v>7.813534711799607</v>
       </c>
       <c r="E2">
-        <v>7.048365070536154</v>
+        <v>11.9442775850175</v>
       </c>
       <c r="F2">
-        <v>41.20475413904574</v>
+        <v>40.09125270640757</v>
       </c>
       <c r="G2">
-        <v>63.98238508338289</v>
+        <v>50.52418930713236</v>
       </c>
       <c r="H2">
-        <v>16.44697143249338</v>
+        <v>18.5405150076428</v>
       </c>
       <c r="I2">
-        <v>12.87400732727469</v>
+        <v>17.96468281857263</v>
       </c>
       <c r="J2">
-        <v>5.080365219283263</v>
+        <v>9.4680546777185</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.48200554949131</v>
+        <v>23.59916342368594</v>
       </c>
       <c r="N2">
-        <v>14.07297586486819</v>
+        <v>17.22925068575277</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.297324229239662</v>
+        <v>6.855506913813617</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.625460169075408</v>
+        <v>7.782147426315136</v>
       </c>
       <c r="E3">
-        <v>7.105786911735215</v>
+        <v>11.97236555253183</v>
       </c>
       <c r="F3">
-        <v>38.72863848095124</v>
+        <v>39.69645356813103</v>
       </c>
       <c r="G3">
-        <v>59.60238717233916</v>
+        <v>49.46409706456289</v>
       </c>
       <c r="H3">
-        <v>15.59694287182256</v>
+        <v>18.44935237361938</v>
       </c>
       <c r="I3">
-        <v>12.97097638382096</v>
+        <v>18.03229161422411</v>
       </c>
       <c r="J3">
-        <v>5.183654904762433</v>
+        <v>9.503365164573314</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.41873358889072</v>
+        <v>23.03317149528904</v>
       </c>
       <c r="N3">
-        <v>13.90728049151059</v>
+        <v>17.20603614829739</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.945016376152384</v>
+        <v>6.735827467134742</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.533362013878874</v>
+        <v>7.762548321420406</v>
       </c>
       <c r="E4">
-        <v>7.142926164256311</v>
+        <v>11.99059895043341</v>
       </c>
       <c r="F4">
-        <v>37.19049258996954</v>
+        <v>39.46668750550329</v>
       </c>
       <c r="G4">
-        <v>56.84496427823235</v>
+        <v>48.822606623127</v>
       </c>
       <c r="H4">
-        <v>15.07544889810861</v>
+        <v>18.39893506702123</v>
       </c>
       <c r="I4">
-        <v>13.03856398307651</v>
+        <v>18.07757787578543</v>
       </c>
       <c r="J4">
-        <v>5.248425314346344</v>
+        <v>9.526094811894636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.08583004885673</v>
+        <v>22.68235403819198</v>
       </c>
       <c r="N4">
-        <v>13.80835616472514</v>
+        <v>17.19389011136596</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.796586848026027</v>
+        <v>6.686554315092262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.4957626353346</v>
+        <v>7.754479713861684</v>
       </c>
       <c r="E5">
-        <v>7.158526589827141</v>
+        <v>11.99827811408117</v>
       </c>
       <c r="F5">
-        <v>36.5594600377594</v>
+        <v>39.37632381889538</v>
       </c>
       <c r="G5">
-        <v>55.70416888463401</v>
+        <v>48.56396512537405</v>
       </c>
       <c r="H5">
-        <v>14.86314447926808</v>
+        <v>18.3797977018381</v>
       </c>
       <c r="I5">
-        <v>13.06808199495372</v>
+        <v>18.09698167638263</v>
       </c>
       <c r="J5">
-        <v>5.275178859658807</v>
+        <v>9.535621968124934</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.52574882991269</v>
+        <v>22.53876501977988</v>
       </c>
       <c r="N5">
-        <v>13.76878434224599</v>
+        <v>17.18947540918066</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.771647250664393</v>
+        <v>6.678344252920963</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.489514234775288</v>
+        <v>7.7531349995769</v>
       </c>
       <c r="E6">
-        <v>7.161144980360939</v>
+        <v>11.99956828572952</v>
       </c>
       <c r="F6">
-        <v>36.45443345460425</v>
+        <v>39.36151880729606</v>
       </c>
       <c r="G6">
-        <v>55.51371255384968</v>
+        <v>48.5211970739707</v>
       </c>
       <c r="H6">
-        <v>14.82790817267397</v>
+        <v>18.37670527201093</v>
       </c>
       <c r="I6">
-        <v>13.07310137159708</v>
+        <v>18.10026100341948</v>
       </c>
       <c r="J6">
-        <v>5.279643497280936</v>
+        <v>9.537219955043733</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.43171790979694</v>
+        <v>22.5148902673998</v>
       </c>
       <c r="N6">
-        <v>13.76225915180211</v>
+        <v>17.18877479650035</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.943034260109469</v>
+        <v>6.735164894820622</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.532855255381039</v>
+        <v>7.762439836024723</v>
       </c>
       <c r="E7">
-        <v>7.143134679315927</v>
+        <v>11.9907015056386</v>
       </c>
       <c r="F7">
-        <v>37.18199889952961</v>
+        <v>39.46545548622883</v>
       </c>
       <c r="G7">
-        <v>56.82964821623969</v>
+        <v>48.8191067392416</v>
       </c>
       <c r="H7">
-        <v>15.07258466527575</v>
+        <v>18.39867125992506</v>
       </c>
       <c r="I7">
-        <v>13.0389541371849</v>
+        <v>18.07783571829284</v>
       </c>
       <c r="J7">
-        <v>5.248784643304081</v>
+        <v>9.526222225739049</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.07834545843419</v>
+        <v>22.68041981808593</v>
       </c>
       <c r="N7">
-        <v>13.80781944341924</v>
+        <v>17.19382840103369</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.656607155184624</v>
+        <v>6.981304034092766</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.723601554859317</v>
+        <v>7.802780557304269</v>
       </c>
       <c r="E8">
-        <v>7.067768555249991</v>
+        <v>11.95375779894275</v>
       </c>
       <c r="F8">
-        <v>40.35477219115965</v>
+        <v>39.95255777400203</v>
       </c>
       <c r="G8">
-        <v>62.48619288633825</v>
+        <v>50.15695906741302</v>
       </c>
       <c r="H8">
-        <v>16.15383453362736</v>
+        <v>18.50793593433493</v>
       </c>
       <c r="I8">
-        <v>12.90574237746869</v>
+        <v>17.98721114364811</v>
       </c>
       <c r="J8">
-        <v>5.115711564186991</v>
+        <v>9.480012582299478</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.78410524528669</v>
+        <v>23.40481132685822</v>
       </c>
       <c r="N8">
-        <v>14.01528046246311</v>
+        <v>17.22081183975233</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.901771759735848</v>
+        <v>7.443197904440936</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.098745013399889</v>
+        <v>7.879274277067433</v>
       </c>
       <c r="E9">
-        <v>6.935344176235872</v>
+        <v>11.88911528469105</v>
       </c>
       <c r="F9">
-        <v>46.43534943961929</v>
+        <v>41.00380343601935</v>
       </c>
       <c r="G9">
-        <v>73.15701430008566</v>
+        <v>52.83747838786125</v>
       </c>
       <c r="H9">
-        <v>18.27666031949743</v>
+        <v>18.76571816851968</v>
       </c>
       <c r="I9">
-        <v>12.71060304131795</v>
+        <v>17.83943271889476</v>
       </c>
       <c r="J9">
-        <v>4.864493559789883</v>
+        <v>9.397676632537481</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>33.58143685148084</v>
+        <v>24.79082500958706</v>
       </c>
       <c r="N9">
-        <v>14.44292673892121</v>
+        <v>17.29022808897652</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.72271502856947</v>
+        <v>7.766498070907825</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.378956378947344</v>
+        <v>7.933859096149787</v>
       </c>
       <c r="E10">
-        <v>6.848249190352357</v>
+        <v>11.84633855417631</v>
       </c>
       <c r="F10">
-        <v>51.07024527361141</v>
+        <v>41.82853518344223</v>
       </c>
       <c r="G10">
-        <v>80.75851443979896</v>
+        <v>54.81844820643104</v>
       </c>
       <c r="H10">
-        <v>20.13802765008517</v>
+        <v>18.98072210312089</v>
       </c>
       <c r="I10">
-        <v>12.61066358687864</v>
+        <v>17.74909523480163</v>
       </c>
       <c r="J10">
-        <v>4.684342554645761</v>
+        <v>9.342174364308701</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.82058882541528</v>
+        <v>25.77761251807862</v>
       </c>
       <c r="N10">
-        <v>14.76773274658653</v>
+        <v>17.35097853096787</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.07591947614121</v>
+        <v>7.909467768255269</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.508659806425869</v>
+        <v>7.958335880595678</v>
       </c>
       <c r="E11">
-        <v>6.811117458052377</v>
+        <v>11.82789357340625</v>
       </c>
       <c r="F11">
-        <v>53.18337597529301</v>
+        <v>42.21368552336925</v>
       </c>
       <c r="G11">
-        <v>84.17105731346061</v>
+        <v>55.71750148888444</v>
       </c>
       <c r="H11">
-        <v>20.98062726297981</v>
+        <v>19.0838570152215</v>
       </c>
       <c r="I11">
-        <v>12.57532097330905</v>
+        <v>17.7119545638676</v>
       </c>
       <c r="J11">
-        <v>4.602957680216776</v>
+        <v>9.317995964090874</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>38.23883041978727</v>
+        <v>26.2176917753635</v>
       </c>
       <c r="N11">
-        <v>14.9173421693587</v>
+        <v>17.38066214488099</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.20677144596761</v>
+        <v>7.962971228475562</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.558233895029854</v>
+        <v>7.967553180310814</v>
       </c>
       <c r="E12">
-        <v>6.797447365351841</v>
+        <v>11.82105413915254</v>
       </c>
       <c r="F12">
-        <v>53.98185892930121</v>
+        <v>42.36084277518097</v>
       </c>
       <c r="G12">
-        <v>85.4589864935802</v>
+        <v>56.05728245631963</v>
       </c>
       <c r="H12">
-        <v>21.29880842088329</v>
+        <v>19.12365494383024</v>
       </c>
       <c r="I12">
-        <v>12.56345027430499</v>
+        <v>17.69845869361501</v>
       </c>
       <c r="J12">
-        <v>4.572183563212642</v>
+        <v>9.308993133344821</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>38.76860852496561</v>
+        <v>26.38292053934916</v>
       </c>
       <c r="N12">
-        <v>14.97422206326929</v>
+        <v>17.39219068001943</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.17871882671556</v>
+        <v>7.951477280714975</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.547534281742942</v>
+        <v>7.965570371284038</v>
       </c>
       <c r="E13">
-        <v>6.800373441118047</v>
+        <v>11.82252068161183</v>
       </c>
       <c r="F13">
-        <v>53.80994305782581</v>
+        <v>42.32909361691026</v>
       </c>
       <c r="G13">
-        <v>85.18175919032041</v>
+        <v>55.98414004933356</v>
       </c>
       <c r="H13">
-        <v>21.23031209413884</v>
+        <v>19.11505109115458</v>
       </c>
       <c r="I13">
-        <v>12.56593865046516</v>
+        <v>17.701339989145</v>
       </c>
       <c r="J13">
-        <v>4.578809980266069</v>
+        <v>9.310925262430445</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>38.65482307735089</v>
+        <v>26.34740100372668</v>
       </c>
       <c r="N13">
-        <v>14.9619625634262</v>
+        <v>17.38969510073482</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.08674276080065</v>
+        <v>7.913882527380042</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.512728201338369</v>
+        <v>7.95909522955162</v>
       </c>
       <c r="E14">
-        <v>6.809984751082894</v>
+        <v>11.82732798074881</v>
       </c>
       <c r="F14">
-        <v>53.2490932937548</v>
+        <v>42.2257667256971</v>
       </c>
       <c r="G14">
-        <v>84.27708811239997</v>
+        <v>55.74547096352674</v>
       </c>
       <c r="H14">
-        <v>21.00681854901731</v>
+        <v>19.08711646339816</v>
       </c>
       <c r="I14">
-        <v>12.57431371775556</v>
+        <v>17.71083285785387</v>
       </c>
       <c r="J14">
-        <v>4.600425211418486</v>
+        <v>9.31725223414429</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>38.28255719429532</v>
+        <v>26.23131452642348</v>
       </c>
       <c r="N14">
-        <v>14.92201741789643</v>
+        <v>17.38160487052229</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.03002767320845</v>
+        <v>7.890770522190336</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.491472813695948</v>
+        <v>7.955122289874529</v>
       </c>
       <c r="E15">
-        <v>6.815924016676567</v>
+        <v>11.83029149268723</v>
       </c>
       <c r="F15">
-        <v>52.90537797069821</v>
+        <v>42.16264276258004</v>
       </c>
       <c r="G15">
-        <v>83.72246239974478</v>
+        <v>55.59918126353194</v>
       </c>
       <c r="H15">
-        <v>20.86982426564009</v>
+        <v>19.07010173664179</v>
       </c>
       <c r="I15">
-        <v>12.57964239589323</v>
+        <v>17.71672154458303</v>
       </c>
       <c r="J15">
-        <v>4.613669787111594</v>
+        <v>9.32114758786641</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>38.05360757697202</v>
+        <v>26.16001901237134</v>
       </c>
       <c r="N15">
-        <v>14.89757808134229</v>
+        <v>17.37668667992481</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.69922586898416</v>
+        <v>7.757068078191851</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.370535840838418</v>
+        <v>7.932252303269413</v>
       </c>
       <c r="E16">
-        <v>6.850728512276971</v>
+        <v>11.8475643385958</v>
       </c>
       <c r="F16">
-        <v>50.93182895019319</v>
+        <v>41.80355477470043</v>
       </c>
       <c r="G16">
-        <v>80.534758929532</v>
+        <v>54.75961870570901</v>
       </c>
       <c r="H16">
-        <v>20.08280459497878</v>
+        <v>18.9740872669325</v>
       </c>
       <c r="I16">
-        <v>12.61318187861176</v>
+        <v>17.75160202548996</v>
       </c>
       <c r="J16">
-        <v>4.689669606352664</v>
+        <v>9.343775936058343</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.72684567333268</v>
+        <v>25.7486616430737</v>
       </c>
       <c r="N16">
-        <v>14.75798927997417</v>
+        <v>17.34907929627812</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.49111186937101</v>
+        <v>7.673961181038244</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.297004108271853</v>
+        <v>7.918131179140143</v>
       </c>
       <c r="E17">
-        <v>6.87273781020913</v>
+        <v>11.85842005624714</v>
       </c>
       <c r="F17">
-        <v>49.71657537752276</v>
+        <v>41.58573248137115</v>
       </c>
       <c r="G17">
-        <v>78.56897500928828</v>
+        <v>54.24376764198647</v>
       </c>
       <c r="H17">
-        <v>19.59778893631719</v>
+        <v>18.91653424400069</v>
       </c>
       <c r="I17">
-        <v>12.63639030494816</v>
+        <v>17.77401278194024</v>
       </c>
       <c r="J17">
-        <v>4.736413421466239</v>
+        <v>9.357931112697205</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>35.89920378059697</v>
+        <v>25.49393739011783</v>
       </c>
       <c r="N17">
-        <v>14.67280232025402</v>
+        <v>17.33266303226159</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.36950350331845</v>
+        <v>7.62577675124896</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.254910877093314</v>
+        <v>7.909975786817061</v>
       </c>
       <c r="E18">
-        <v>6.885628704899735</v>
+        <v>11.86475948980601</v>
       </c>
       <c r="F18">
-        <v>49.01552752217086</v>
+        <v>41.46139349305627</v>
       </c>
       <c r="G18">
-        <v>77.43387156576202</v>
+        <v>53.94688699130278</v>
       </c>
       <c r="H18">
-        <v>19.31784682477883</v>
+        <v>18.88393431807638</v>
       </c>
       <c r="I18">
-        <v>12.65068830600885</v>
+        <v>17.78727506388476</v>
       </c>
       <c r="J18">
-        <v>4.763355047121795</v>
+        <v>9.366173546196057</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>35.41791796782078</v>
+        <v>25.34660532476167</v>
       </c>
       <c r="N18">
-        <v>14.62398197193885</v>
+        <v>17.32341399511068</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.32800119480554</v>
+        <v>7.609397941968596</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.240689599522701</v>
+        <v>7.907208810989132</v>
       </c>
       <c r="E19">
-        <v>6.890032286491264</v>
+        <v>11.86692233524347</v>
       </c>
       <c r="F19">
-        <v>48.77777603885936</v>
+        <v>41.41946081648484</v>
       </c>
       <c r="G19">
-        <v>77.04872457384397</v>
+        <v>53.84634951331174</v>
       </c>
       <c r="H19">
-        <v>19.22288187191036</v>
+        <v>18.87298362430907</v>
       </c>
       <c r="I19">
-        <v>12.65569062122916</v>
+        <v>17.79182937500673</v>
       </c>
       <c r="J19">
-        <v>4.772487652289337</v>
+        <v>9.368981622147521</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>35.25404307382014</v>
+        <v>25.29658497106778</v>
       </c>
       <c r="N19">
-        <v>14.60748384717407</v>
+        <v>17.32031580047456</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.51346321531183</v>
+        <v>7.682848096698123</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.304810075138646</v>
+        <v>7.919637847200247</v>
       </c>
       <c r="E20">
-        <v>6.870370691222645</v>
+        <v>11.85725456571063</v>
       </c>
       <c r="F20">
-        <v>49.84614676098879</v>
+        <v>41.60882296476287</v>
       </c>
       <c r="G20">
-        <v>78.77868098033585</v>
+        <v>54.2987018993243</v>
       </c>
       <c r="H20">
-        <v>19.64951704319513</v>
+        <v>18.92260896104521</v>
       </c>
       <c r="I20">
-        <v>12.63382107971497</v>
+        <v>17.77158859742121</v>
       </c>
       <c r="J20">
-        <v>4.73143193733453</v>
+        <v>9.356413848807316</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>35.98784637665997</v>
+        <v>25.52113937446999</v>
       </c>
       <c r="N20">
-        <v>14.68185259510609</v>
+        <v>17.33439062625724</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.11383691938213</v>
+        <v>7.924942627542456</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.522937885894649</v>
+        <v>7.960998538920924</v>
       </c>
       <c r="E21">
-        <v>6.807150752886501</v>
+        <v>11.82591202225502</v>
       </c>
       <c r="F21">
-        <v>53.41386286530204</v>
+        <v>42.25608181566872</v>
       </c>
       <c r="G21">
-        <v>84.54290901028753</v>
+        <v>55.81559491125551</v>
       </c>
       <c r="H21">
-        <v>21.07248329282917</v>
+        <v>19.09530156991815</v>
       </c>
       <c r="I21">
-        <v>12.57181224521633</v>
+        <v>17.70802914458145</v>
       </c>
       <c r="J21">
-        <v>4.594075403931446</v>
+        <v>9.315389703354409</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>38.39209231380018</v>
+        <v>26.26545162133121</v>
       </c>
       <c r="N21">
-        <v>14.93374446860193</v>
+        <v>17.38397340396707</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.48932700849073</v>
+        <v>8.07943953003242</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.668259130014405</v>
+        <v>7.987729518071464</v>
       </c>
       <c r="E22">
-        <v>6.768134745063616</v>
+        <v>11.80627439100333</v>
       </c>
       <c r="F22">
-        <v>55.7364571128517</v>
+        <v>42.68667454800926</v>
       </c>
       <c r="G22">
-        <v>88.28639627113498</v>
+        <v>56.80290447291171</v>
       </c>
       <c r="H22">
-        <v>21.99762476329915</v>
+        <v>19.21248491628501</v>
       </c>
       <c r="I22">
-        <v>12.54012967014643</v>
+        <v>17.66980291223147</v>
       </c>
       <c r="J22">
-        <v>4.504543767171636</v>
+        <v>9.289469494020402</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>39.92138504411262</v>
+        <v>26.74356551991535</v>
       </c>
       <c r="N22">
-        <v>15.09966829385464</v>
+        <v>17.41805410857719</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.29046121564734</v>
+        <v>7.99733671490849</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.590390638113107</v>
+        <v>7.973490399399559</v>
       </c>
       <c r="E23">
-        <v>6.788733906004857</v>
+        <v>11.81667809872911</v>
       </c>
       <c r="F23">
-        <v>54.49715324000744</v>
+        <v>42.45620813202427</v>
       </c>
       <c r="G23">
-        <v>86.28972078082452</v>
+        <v>56.27644761106204</v>
       </c>
       <c r="H23">
-        <v>21.50408794020103</v>
+        <v>19.1495548856033</v>
       </c>
       <c r="I23">
-        <v>12.55621122666703</v>
+        <v>17.68990183353757</v>
       </c>
       <c r="J23">
-        <v>4.552320209150833</v>
+        <v>9.30322230712089</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>39.10876231615114</v>
+        <v>26.48919712573587</v>
       </c>
       <c r="N23">
-        <v>15.01100655609302</v>
+        <v>17.39971348760903</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.50336428035322</v>
+        <v>7.678831580573411</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.301280443159589</v>
+        <v>7.918956797677387</v>
       </c>
       <c r="E24">
-        <v>6.871440128446596</v>
+        <v>11.85778117764017</v>
       </c>
       <c r="F24">
-        <v>49.78757505217494</v>
+        <v>41.59838097574471</v>
       </c>
       <c r="G24">
-        <v>78.68388848206365</v>
+        <v>54.27386706206146</v>
       </c>
       <c r="H24">
-        <v>19.62613423128849</v>
+        <v>18.91986105948425</v>
       </c>
       <c r="I24">
-        <v>12.6349796556748</v>
+        <v>17.77268339372424</v>
       </c>
       <c r="J24">
-        <v>4.733683851831515</v>
+        <v>9.357099478460068</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>35.94778812519514</v>
+        <v>25.5088441106616</v>
       </c>
       <c r="N24">
-        <v>14.67776048072165</v>
+        <v>17.33360899216647</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.581434732654914</v>
+        <v>7.320835894816999</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.996794613489601</v>
+        <v>7.858862732760365</v>
       </c>
       <c r="E25">
-        <v>6.969451838217307</v>
+        <v>11.90577162264463</v>
       </c>
       <c r="F25">
-        <v>44.80461358472616</v>
+        <v>40.70974695106175</v>
       </c>
       <c r="G25">
-        <v>70.30555443122486</v>
+        <v>52.10865778836248</v>
       </c>
       <c r="H25">
-        <v>17.7019308552962</v>
+        <v>18.6914090744942</v>
       </c>
       <c r="I25">
-        <v>12.75599829732951</v>
+        <v>17.87620724083694</v>
       </c>
       <c r="J25">
-        <v>4.931558945905532</v>
+        <v>9.419070197269598</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.33574732733882</v>
+        <v>24.42069093570499</v>
       </c>
       <c r="N25">
-        <v>14.32521983094197</v>
+        <v>17.26971355136105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.046725381108142</v>
+        <v>8.83952691857092</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.813534711799607</v>
+        <v>5.775244307934052</v>
       </c>
       <c r="E2">
-        <v>11.9442775850175</v>
+        <v>7.048365070536154</v>
       </c>
       <c r="F2">
-        <v>40.09125270640757</v>
+        <v>41.20475413904573</v>
       </c>
       <c r="G2">
-        <v>50.52418930713236</v>
+        <v>63.98238508338287</v>
       </c>
       <c r="H2">
-        <v>18.5405150076428</v>
+        <v>16.44697143249336</v>
       </c>
       <c r="I2">
-        <v>17.96468281857263</v>
+        <v>12.87400732727471</v>
       </c>
       <c r="J2">
-        <v>9.4680546777185</v>
+        <v>5.080365219283295</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.59916342368594</v>
+        <v>29.48200554949131</v>
       </c>
       <c r="N2">
-        <v>17.22925068575277</v>
+        <v>14.07297586486819</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.855506913813617</v>
+        <v>8.297324229239678</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.782147426315136</v>
+        <v>5.625460169075405</v>
       </c>
       <c r="E3">
-        <v>11.97236555253183</v>
+        <v>7.105786911735079</v>
       </c>
       <c r="F3">
-        <v>39.69645356813103</v>
+        <v>38.72863848095119</v>
       </c>
       <c r="G3">
-        <v>49.46409706456289</v>
+        <v>59.60238717233916</v>
       </c>
       <c r="H3">
-        <v>18.44935237361938</v>
+        <v>15.59694287182253</v>
       </c>
       <c r="I3">
-        <v>18.03229161422411</v>
+        <v>12.97097638382096</v>
       </c>
       <c r="J3">
-        <v>9.503365164573314</v>
+        <v>5.183654904762433</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.03317149528904</v>
+        <v>27.41873358889075</v>
       </c>
       <c r="N3">
-        <v>17.20603614829739</v>
+        <v>13.90728049151059</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.735827467134742</v>
+        <v>7.945016376152407</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.762548321420406</v>
+        <v>5.533362013878993</v>
       </c>
       <c r="E4">
-        <v>11.99059895043341</v>
+        <v>7.142926164256306</v>
       </c>
       <c r="F4">
-        <v>39.46668750550329</v>
+        <v>37.19049258996954</v>
       </c>
       <c r="G4">
-        <v>48.822606623127</v>
+        <v>56.84496427823241</v>
       </c>
       <c r="H4">
-        <v>18.39893506702123</v>
+        <v>15.07544889810861</v>
       </c>
       <c r="I4">
-        <v>18.07757787578543</v>
+        <v>13.03856398307645</v>
       </c>
       <c r="J4">
-        <v>9.526094811894636</v>
+        <v>5.248425314346308</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.68235403819198</v>
+        <v>26.08583004885676</v>
       </c>
       <c r="N4">
-        <v>17.19389011136596</v>
+        <v>13.80835616472509</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.686554315092262</v>
+        <v>7.796586848026012</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.754479713861684</v>
+        <v>5.49576263533454</v>
       </c>
       <c r="E5">
-        <v>11.99827811408117</v>
+        <v>7.158526589827141</v>
       </c>
       <c r="F5">
-        <v>39.37632381889538</v>
+        <v>36.55946003775944</v>
       </c>
       <c r="G5">
-        <v>48.56396512537405</v>
+        <v>55.70416888463406</v>
       </c>
       <c r="H5">
-        <v>18.3797977018381</v>
+        <v>14.8631444792681</v>
       </c>
       <c r="I5">
-        <v>18.09698167638263</v>
+        <v>13.06808199495372</v>
       </c>
       <c r="J5">
-        <v>9.535621968124934</v>
+        <v>5.27517885965884</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>22.53876501977988</v>
+        <v>25.52574882991269</v>
       </c>
       <c r="N5">
-        <v>17.18947540918066</v>
+        <v>13.76878434224599</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.678344252920963</v>
+        <v>7.771647250664378</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.7531349995769</v>
+        <v>5.489514234775288</v>
       </c>
       <c r="E6">
-        <v>11.99956828572952</v>
+        <v>7.161144980361075</v>
       </c>
       <c r="F6">
-        <v>39.36151880729606</v>
+        <v>36.45443345460414</v>
       </c>
       <c r="G6">
-        <v>48.5211970739707</v>
+        <v>55.51371255384975</v>
       </c>
       <c r="H6">
-        <v>18.37670527201093</v>
+        <v>14.8279081726739</v>
       </c>
       <c r="I6">
-        <v>18.10026100341948</v>
+        <v>13.07310137159699</v>
       </c>
       <c r="J6">
-        <v>9.537219955043733</v>
+        <v>5.279643497281134</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>22.5148902673998</v>
+        <v>25.43171790979702</v>
       </c>
       <c r="N6">
-        <v>17.18877479650035</v>
+        <v>13.76225915180202</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.735164894820622</v>
+        <v>7.943034260109439</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.762439836024723</v>
+        <v>5.532855255381107</v>
       </c>
       <c r="E7">
-        <v>11.9907015056386</v>
+        <v>7.143134679315928</v>
       </c>
       <c r="F7">
-        <v>39.46545548622883</v>
+        <v>37.18199889952959</v>
       </c>
       <c r="G7">
-        <v>48.8191067392416</v>
+        <v>56.82964821623969</v>
       </c>
       <c r="H7">
-        <v>18.39867125992506</v>
+        <v>15.07258466527575</v>
       </c>
       <c r="I7">
-        <v>18.07783571829284</v>
+        <v>13.03895413718497</v>
       </c>
       <c r="J7">
-        <v>9.526222225739049</v>
+        <v>5.248784643304015</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.68041981808593</v>
+        <v>26.07834545843423</v>
       </c>
       <c r="N7">
-        <v>17.19382840103369</v>
+        <v>13.80781944341925</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.981304034092766</v>
+        <v>8.656607155184641</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.802780557304269</v>
+        <v>5.72360155485938</v>
       </c>
       <c r="E8">
-        <v>11.95375779894275</v>
+        <v>7.067768555250059</v>
       </c>
       <c r="F8">
-        <v>39.95255777400203</v>
+        <v>40.3547721911596</v>
       </c>
       <c r="G8">
-        <v>50.15695906741302</v>
+        <v>62.48619288633824</v>
       </c>
       <c r="H8">
-        <v>18.50793593433493</v>
+        <v>16.15383453362735</v>
       </c>
       <c r="I8">
-        <v>17.98721114364811</v>
+        <v>12.90574237746867</v>
       </c>
       <c r="J8">
-        <v>9.480012582299478</v>
+        <v>5.115711564187059</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.40481132685822</v>
+        <v>28.78410524528673</v>
       </c>
       <c r="N8">
-        <v>17.22081183975233</v>
+        <v>14.01528046246309</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.443197904440936</v>
+        <v>9.901771759735858</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.879274277067433</v>
+        <v>6.098745013399884</v>
       </c>
       <c r="E9">
-        <v>11.88911528469105</v>
+        <v>6.935344176235867</v>
       </c>
       <c r="F9">
-        <v>41.00380343601935</v>
+        <v>46.43534943961935</v>
       </c>
       <c r="G9">
-        <v>52.83747838786125</v>
+        <v>73.15701430008572</v>
       </c>
       <c r="H9">
-        <v>18.76571816851968</v>
+        <v>18.27666031949745</v>
       </c>
       <c r="I9">
-        <v>17.83943271889476</v>
+        <v>12.71060304131804</v>
       </c>
       <c r="J9">
-        <v>9.397676632537481</v>
+        <v>4.864493559789854</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>24.79082500958706</v>
+        <v>33.58143685148089</v>
       </c>
       <c r="N9">
-        <v>17.29022808897652</v>
+        <v>14.44292673892127</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.766498070907825</v>
+        <v>10.72271502856949</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.933859096149787</v>
+        <v>6.37895637894729</v>
       </c>
       <c r="E10">
-        <v>11.84633855417631</v>
+        <v>6.848249190352323</v>
       </c>
       <c r="F10">
-        <v>41.82853518344223</v>
+        <v>51.07024527361139</v>
       </c>
       <c r="G10">
-        <v>54.81844820643104</v>
+        <v>80.75851443979893</v>
       </c>
       <c r="H10">
-        <v>18.98072210312089</v>
+        <v>20.13802765008516</v>
       </c>
       <c r="I10">
-        <v>17.74909523480163</v>
+        <v>12.61066358687864</v>
       </c>
       <c r="J10">
-        <v>9.342174364308701</v>
+        <v>4.684342554645762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>25.77761251807862</v>
+        <v>36.82058882541528</v>
       </c>
       <c r="N10">
-        <v>17.35097853096787</v>
+        <v>14.76773274658654</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.909467768255269</v>
+        <v>11.07591947614116</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.958335880595678</v>
+        <v>6.50865980642593</v>
       </c>
       <c r="E11">
-        <v>11.82789357340625</v>
+        <v>6.811117458052412</v>
       </c>
       <c r="F11">
-        <v>42.21368552336925</v>
+        <v>53.18337597529285</v>
       </c>
       <c r="G11">
-        <v>55.71750148888444</v>
+        <v>84.17105731346035</v>
       </c>
       <c r="H11">
-        <v>19.0838570152215</v>
+        <v>20.98062726297971</v>
       </c>
       <c r="I11">
-        <v>17.7119545638676</v>
+        <v>12.5753209733091</v>
       </c>
       <c r="J11">
-        <v>9.317995964090874</v>
+        <v>4.602957680216803</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>26.2176917753635</v>
+        <v>38.23883041978715</v>
       </c>
       <c r="N11">
-        <v>17.38066214488099</v>
+        <v>14.91734216935868</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.962971228475562</v>
+        <v>11.20677144596759</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.967553180310814</v>
+        <v>6.558233895029793</v>
       </c>
       <c r="E12">
-        <v>11.82105413915254</v>
+        <v>6.797447365351905</v>
       </c>
       <c r="F12">
-        <v>42.36084277518097</v>
+        <v>53.98185892930118</v>
       </c>
       <c r="G12">
-        <v>56.05728245631963</v>
+        <v>85.45898649358014</v>
       </c>
       <c r="H12">
-        <v>19.12365494383024</v>
+        <v>21.29880842088332</v>
       </c>
       <c r="I12">
-        <v>17.69845869361501</v>
+        <v>12.563450274305</v>
       </c>
       <c r="J12">
-        <v>9.308993133344821</v>
+        <v>4.572183563212671</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>26.38292053934916</v>
+        <v>38.7686085249656</v>
       </c>
       <c r="N12">
-        <v>17.39219068001943</v>
+        <v>14.9742220632693</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.951477280714975</v>
+        <v>11.17871882671554</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.965570371284038</v>
+        <v>6.54753428174292</v>
       </c>
       <c r="E13">
-        <v>11.82252068161183</v>
+        <v>6.800373441118079</v>
       </c>
       <c r="F13">
-        <v>42.32909361691026</v>
+        <v>53.80994305782575</v>
       </c>
       <c r="G13">
-        <v>55.98414004933356</v>
+        <v>85.18175919032025</v>
       </c>
       <c r="H13">
-        <v>19.11505109115458</v>
+        <v>21.2303120941388</v>
       </c>
       <c r="I13">
-        <v>17.701339989145</v>
+        <v>12.56593865046518</v>
       </c>
       <c r="J13">
-        <v>9.310925262430445</v>
+        <v>4.578809980266104</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>26.34740100372668</v>
+        <v>38.65482307735085</v>
       </c>
       <c r="N13">
-        <v>17.38969510073482</v>
+        <v>14.9619625634262</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.913882527380042</v>
+        <v>11.08674276080068</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.95909522955162</v>
+        <v>6.512728201338307</v>
       </c>
       <c r="E14">
-        <v>11.82732798074881</v>
+        <v>6.809984751082894</v>
       </c>
       <c r="F14">
-        <v>42.2257667256971</v>
+        <v>53.24909329375483</v>
       </c>
       <c r="G14">
-        <v>55.74547096352674</v>
+        <v>84.27708811239999</v>
       </c>
       <c r="H14">
-        <v>19.08711646339816</v>
+        <v>21.00681854901731</v>
       </c>
       <c r="I14">
-        <v>17.71083285785387</v>
+        <v>12.5743137177556</v>
       </c>
       <c r="J14">
-        <v>9.31725223414429</v>
+        <v>4.600425211418522</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>26.23131452642348</v>
+        <v>38.28255719429532</v>
       </c>
       <c r="N14">
-        <v>17.38160487052229</v>
+        <v>14.92201741789644</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.890770522190336</v>
+        <v>11.03002767320843</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.955122289874529</v>
+        <v>6.491472813695818</v>
       </c>
       <c r="E15">
-        <v>11.83029149268723</v>
+        <v>6.815924016676568</v>
       </c>
       <c r="F15">
-        <v>42.16264276258004</v>
+        <v>52.90537797069831</v>
       </c>
       <c r="G15">
-        <v>55.59918126353194</v>
+        <v>83.7224623997448</v>
       </c>
       <c r="H15">
-        <v>19.07010173664179</v>
+        <v>20.86982426564014</v>
       </c>
       <c r="I15">
-        <v>17.71672154458303</v>
+        <v>12.57964239589323</v>
       </c>
       <c r="J15">
-        <v>9.32114758786641</v>
+        <v>4.613669787111659</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>26.16001901237134</v>
+        <v>38.05360757697203</v>
       </c>
       <c r="N15">
-        <v>17.37668667992481</v>
+        <v>14.89757808134227</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.757068078191851</v>
+        <v>10.69922586898415</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.932252303269413</v>
+        <v>6.370535840838356</v>
       </c>
       <c r="E16">
-        <v>11.8475643385958</v>
+        <v>6.850728512276937</v>
       </c>
       <c r="F16">
-        <v>41.80355477470043</v>
+        <v>50.93182895019308</v>
       </c>
       <c r="G16">
-        <v>54.75961870570901</v>
+        <v>80.53475892953182</v>
       </c>
       <c r="H16">
-        <v>18.9740872669325</v>
+        <v>20.08280459497871</v>
       </c>
       <c r="I16">
-        <v>17.75160202548996</v>
+        <v>12.61318187861176</v>
       </c>
       <c r="J16">
-        <v>9.343775936058343</v>
+        <v>4.689669606352632</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>25.7486616430737</v>
+        <v>36.72684567333262</v>
       </c>
       <c r="N16">
-        <v>17.34907929627812</v>
+        <v>14.75798927997418</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.673961181038244</v>
+        <v>10.49111186937101</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.918131179140143</v>
+        <v>6.297004108271778</v>
       </c>
       <c r="E17">
-        <v>11.85842005624714</v>
+        <v>6.872737810209061</v>
       </c>
       <c r="F17">
-        <v>41.58573248137115</v>
+        <v>49.71657537752284</v>
       </c>
       <c r="G17">
-        <v>54.24376764198647</v>
+        <v>78.56897500928842</v>
       </c>
       <c r="H17">
-        <v>18.91653424400069</v>
+        <v>19.59778893631722</v>
       </c>
       <c r="I17">
-        <v>17.77401278194024</v>
+        <v>12.63639030494816</v>
       </c>
       <c r="J17">
-        <v>9.357931112697205</v>
+        <v>4.736413421466242</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>25.49393739011783</v>
+        <v>35.89920378059702</v>
       </c>
       <c r="N17">
-        <v>17.33266303226159</v>
+        <v>14.67280232025402</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.62577675124896</v>
+        <v>10.36950350331847</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.909975786817061</v>
+        <v>6.254910877093327</v>
       </c>
       <c r="E18">
-        <v>11.86475948980601</v>
+        <v>6.885628704899672</v>
       </c>
       <c r="F18">
-        <v>41.46139349305627</v>
+        <v>49.01552752217086</v>
       </c>
       <c r="G18">
-        <v>53.94688699130278</v>
+        <v>77.43387156576198</v>
       </c>
       <c r="H18">
-        <v>18.88393431807638</v>
+        <v>19.31784682477887</v>
       </c>
       <c r="I18">
-        <v>17.78727506388476</v>
+        <v>12.65068830600887</v>
       </c>
       <c r="J18">
-        <v>9.366173546196057</v>
+        <v>4.763355047121824</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>25.34660532476167</v>
+        <v>35.4179179678208</v>
       </c>
       <c r="N18">
-        <v>17.32341399511068</v>
+        <v>14.62398197193888</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.609397941968596</v>
+        <v>10.32800119480553</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.907208810989132</v>
+        <v>6.240689599522647</v>
       </c>
       <c r="E19">
-        <v>11.86692233524347</v>
+        <v>6.890032286491332</v>
       </c>
       <c r="F19">
-        <v>41.41946081648484</v>
+        <v>48.77777603885939</v>
       </c>
       <c r="G19">
-        <v>53.84634951331174</v>
+        <v>77.04872457384404</v>
       </c>
       <c r="H19">
-        <v>18.87298362430907</v>
+        <v>19.2228818719104</v>
       </c>
       <c r="I19">
-        <v>17.79182937500673</v>
+        <v>12.65569062122916</v>
       </c>
       <c r="J19">
-        <v>9.368981622147521</v>
+        <v>4.772487652289372</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.29658497106778</v>
+        <v>35.25404307382017</v>
       </c>
       <c r="N19">
-        <v>17.32031580047456</v>
+        <v>14.60748384717407</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.682848096698123</v>
+        <v>10.51346321531182</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.919637847200247</v>
+        <v>6.304810075138648</v>
       </c>
       <c r="E20">
-        <v>11.85725456571063</v>
+        <v>6.870370691222711</v>
       </c>
       <c r="F20">
-        <v>41.60882296476287</v>
+        <v>49.84614676098882</v>
       </c>
       <c r="G20">
-        <v>54.2987018993243</v>
+        <v>78.77868098033595</v>
       </c>
       <c r="H20">
-        <v>18.92260896104521</v>
+        <v>19.64951704319517</v>
       </c>
       <c r="I20">
-        <v>17.77158859742121</v>
+        <v>12.63382107971495</v>
       </c>
       <c r="J20">
-        <v>9.356413848807316</v>
+        <v>4.73143193733453</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.52113937446999</v>
+        <v>35.98784637665997</v>
       </c>
       <c r="N20">
-        <v>17.33439062625724</v>
+        <v>14.68185259510609</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.924942627542456</v>
+        <v>11.11383691938207</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.960998538920924</v>
+        <v>6.522937885894519</v>
       </c>
       <c r="E21">
-        <v>11.82591202225502</v>
+        <v>6.807150752886565</v>
       </c>
       <c r="F21">
-        <v>42.25608181566872</v>
+        <v>53.41386286530201</v>
       </c>
       <c r="G21">
-        <v>55.81559491125551</v>
+        <v>84.54290901028747</v>
       </c>
       <c r="H21">
-        <v>19.09530156991815</v>
+        <v>21.07248329282913</v>
       </c>
       <c r="I21">
-        <v>17.70802914458145</v>
+        <v>12.57181224521638</v>
       </c>
       <c r="J21">
-        <v>9.315389703354409</v>
+        <v>4.594075403931513</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>26.26545162133121</v>
+        <v>38.39209231380016</v>
       </c>
       <c r="N21">
-        <v>17.38397340396707</v>
+        <v>14.93374446860194</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.07943953003242</v>
+        <v>11.48932700849075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.987729518071464</v>
+        <v>6.668259130014544</v>
       </c>
       <c r="E22">
-        <v>11.80627439100333</v>
+        <v>6.768134745063652</v>
       </c>
       <c r="F22">
-        <v>42.68667454800926</v>
+        <v>55.73645711285181</v>
       </c>
       <c r="G22">
-        <v>56.80290447291171</v>
+        <v>88.28639627113523</v>
       </c>
       <c r="H22">
-        <v>19.21248491628501</v>
+        <v>21.99762476329922</v>
       </c>
       <c r="I22">
-        <v>17.66980291223147</v>
+        <v>12.54012967014642</v>
       </c>
       <c r="J22">
-        <v>9.289469494020402</v>
+        <v>4.504543767171604</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>26.74356551991535</v>
+        <v>39.92138504411268</v>
       </c>
       <c r="N22">
-        <v>17.41805410857719</v>
+        <v>15.09966829385464</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.99733671490849</v>
+        <v>11.29046121564736</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.973490399399559</v>
+        <v>6.590390638113051</v>
       </c>
       <c r="E23">
-        <v>11.81667809872911</v>
+        <v>6.788733906004824</v>
       </c>
       <c r="F23">
-        <v>42.45620813202427</v>
+        <v>54.49715324000758</v>
       </c>
       <c r="G23">
-        <v>56.27644761106204</v>
+        <v>86.28972078082481</v>
       </c>
       <c r="H23">
-        <v>19.1495548856033</v>
+        <v>21.50408794020109</v>
       </c>
       <c r="I23">
-        <v>17.68990183353757</v>
+        <v>12.55621122666699</v>
       </c>
       <c r="J23">
-        <v>9.30322230712089</v>
+        <v>4.552320209150802</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>26.48919712573587</v>
+        <v>39.10876231615122</v>
       </c>
       <c r="N23">
-        <v>17.39971348760903</v>
+        <v>15.01100655609297</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.678831580573411</v>
+        <v>10.50336428035322</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.918956797677387</v>
+        <v>6.301280443159666</v>
       </c>
       <c r="E24">
-        <v>11.85778117764017</v>
+        <v>6.871440128446661</v>
       </c>
       <c r="F24">
-        <v>41.59838097574471</v>
+        <v>49.78757505217489</v>
       </c>
       <c r="G24">
-        <v>54.27386706206146</v>
+        <v>78.68388848206365</v>
       </c>
       <c r="H24">
-        <v>18.91986105948425</v>
+        <v>19.62613423128846</v>
       </c>
       <c r="I24">
-        <v>17.77268339372424</v>
+        <v>12.63497965567481</v>
       </c>
       <c r="J24">
-        <v>9.357099478460068</v>
+        <v>4.733683851831483</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>25.5088441106616</v>
+        <v>35.94778812519512</v>
       </c>
       <c r="N24">
-        <v>17.33360899216647</v>
+        <v>14.67776048072166</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.320835894816999</v>
+        <v>9.581434732654923</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.858862732760365</v>
+        <v>5.996794613489595</v>
       </c>
       <c r="E25">
-        <v>11.90577162264463</v>
+        <v>6.969451838217239</v>
       </c>
       <c r="F25">
-        <v>40.70974695106175</v>
+        <v>44.80461358472621</v>
       </c>
       <c r="G25">
-        <v>52.10865778836248</v>
+        <v>70.30555443122488</v>
       </c>
       <c r="H25">
-        <v>18.6914090744942</v>
+        <v>17.7019308552962</v>
       </c>
       <c r="I25">
-        <v>17.87620724083694</v>
+        <v>12.7559982973295</v>
       </c>
       <c r="J25">
-        <v>9.419070197269598</v>
+        <v>4.931558945905533</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>24.42069093570499</v>
+        <v>32.33574732733883</v>
       </c>
       <c r="N25">
-        <v>17.26971355136105</v>
+        <v>14.32521983094195</v>
       </c>
       <c r="O25">
         <v>0</v>
